--- a/Data Sets/Analysis Data/Stops Sorted.xlsx
+++ b/Data Sets/Analysis Data/Stops Sorted.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/fahmid_kaisar_ucalgary_ca/Documents/Calgary Transit Repository/Data Sets/Route Coordinates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulemanbasit/PycharmProjects/Calgary-Transit-Economic-Gap-Analysis/Data Sets/Analysis Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F85339F-6093-488C-87FA-AACAB30F5D5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8B3840-2460-914E-9BF1-92F2CE464EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="500" windowWidth="20580" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="340">
   <si>
     <t>Location</t>
   </si>
@@ -775,13 +776,412 @@
   </si>
   <si>
     <t>Woodpark</t>
+  </si>
+  <si>
+    <t>Stops</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>51.037317,-114.187902</t>
+  </si>
+  <si>
+    <t>51.038353, -114.169128</t>
+  </si>
+  <si>
+    <t>51.03776,-114.153425</t>
+  </si>
+  <si>
+    <t>51.041596,-114.124162</t>
+  </si>
+  <si>
+    <t>51.041724,-114.124038</t>
+  </si>
+  <si>
+    <t>51.044842,-114.099099</t>
+  </si>
+  <si>
+    <t>51.047199,-114.087225</t>
+  </si>
+  <si>
+    <t>51.046974,-114.079003</t>
+  </si>
+  <si>
+    <t>51.046831,-114.073872</t>
+  </si>
+  <si>
+    <t>51.046548,-114.067882</t>
+  </si>
+  <si>
+    <t>51.046352,-114.058588</t>
+  </si>
+  <si>
+    <t>51.049006,-114.040292</t>
+  </si>
+  <si>
+    <t>51.047355,-114.025265</t>
+  </si>
+  <si>
+    <t>51.045383,-114.005753</t>
+  </si>
+  <si>
+    <t>51.047046,-113.994380</t>
+  </si>
+  <si>
+    <t>51.058821,-113.981329</t>
+  </si>
+  <si>
+    <t>51.074977,-113.981646</t>
+  </si>
+  <si>
+    <t>51.086158,-113.981999</t>
+  </si>
+  <si>
+    <t>51.109637,-113.974725</t>
+  </si>
+  <si>
+    <t>51.117942,-113.967602</t>
+  </si>
+  <si>
+    <t>51.126022,-113.947956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martindale
+Taradale
+Saddle Ridge
+</t>
+  </si>
+  <si>
+    <t>51.134478,-114.235600</t>
+  </si>
+  <si>
+    <t>51.122479,-114.206602</t>
+  </si>
+  <si>
+    <t>51.102940,-114.159969</t>
+  </si>
+  <si>
+    <t>51.086784,-114.131849</t>
+  </si>
+  <si>
+    <t>51.080099,-114.123020</t>
+  </si>
+  <si>
+    <t>51.070964,-114.115431</t>
+  </si>
+  <si>
+    <t>51.065000,-114.103587</t>
+  </si>
+  <si>
+    <t>51.063036,-114.091128</t>
+  </si>
+  <si>
+    <t>51.055896,-114.084383</t>
+  </si>
+  <si>
+    <t>51.037998,-114.058285</t>
+  </si>
+  <si>
+    <t>51.031945,-114.059005</t>
+  </si>
+  <si>
+    <t>51.017296,-114.061357</t>
+  </si>
+  <si>
+    <t>50.997258,-114.065494</t>
+  </si>
+  <si>
+    <t>50.978422,-114.073923</t>
+  </si>
+  <si>
+    <t>50.964062,-114.076725</t>
+  </si>
+  <si>
+    <t>50.953976,-114.074688</t>
+  </si>
+  <si>
+    <t>50.936173,-114.069820</t>
+  </si>
+  <si>
+    <t>50.923233,-114.072885</t>
+  </si>
+  <si>
+    <t>50.910504,-114.070564</t>
+  </si>
+  <si>
+    <t>50.898637,-114.068921</t>
+  </si>
+  <si>
+    <t>51.086514,-114.132140</t>
+  </si>
+  <si>
+    <t>51.081855,-114.130239</t>
+  </si>
+  <si>
+    <t>51.075276,-114.145858</t>
+  </si>
+  <si>
+    <t>51.065159,-114.132418</t>
+  </si>
+  <si>
+    <t>51.066812,-114.105172</t>
+  </si>
+  <si>
+    <t>51.066894,-114.089896</t>
+  </si>
+  <si>
+    <t>51.066725,-114.071192</t>
+  </si>
+  <si>
+    <t>51.066885,-114.056019</t>
+  </si>
+  <si>
+    <t>51.066966,-114.043084</t>
+  </si>
+  <si>
+    <t>51.066960,-114.013324</t>
+  </si>
+  <si>
+    <t>51.081512,-113.969956</t>
+  </si>
+  <si>
+    <t>51.082115,-113.958453</t>
+  </si>
+  <si>
+    <t>51.085938,-113.958505</t>
+  </si>
+  <si>
+    <t>51.091555,-113.958432</t>
+  </si>
+  <si>
+    <t>51.099873,-113.958345</t>
+  </si>
+  <si>
+    <t>51.106660,-113.949767</t>
+  </si>
+  <si>
+    <t>51.114127,-113.946840</t>
+  </si>
+  <si>
+    <t>51.121049,-113.946725</t>
+  </si>
+  <si>
+    <t>51.030274,-114.14226</t>
+  </si>
+  <si>
+    <t>richmond rd</t>
+  </si>
+  <si>
+    <t>51.022530,-114.141154</t>
+  </si>
+  <si>
+    <t>sarcee rd</t>
+  </si>
+  <si>
+    <t>51.012510,-114.139111</t>
+  </si>
+  <si>
+    <t>mount royal university west</t>
+  </si>
+  <si>
+    <t>51.014362,-114.13384</t>
+  </si>
+  <si>
+    <t>51.011005,-114.126971</t>
+  </si>
+  <si>
+    <t>51.005345,-114.117967</t>
+  </si>
+  <si>
+    <t>50.987582,-114.095881</t>
+  </si>
+  <si>
+    <t>heritage park</t>
+  </si>
+  <si>
+    <t>50.979969,-114.095656</t>
+  </si>
+  <si>
+    <t>elbow dr</t>
+  </si>
+  <si>
+    <t>50.979615,-114.083052</t>
+  </si>
+  <si>
+    <t>50.979077,-114.074892</t>
+  </si>
+  <si>
+    <t>fairmount dr</t>
+  </si>
+  <si>
+    <t>50.979583,-114.060045</t>
+  </si>
+  <si>
+    <t>deerfoot meadows</t>
+  </si>
+  <si>
+    <t>50.987162,-114.044048</t>
+  </si>
+  <si>
+    <t>riverbend</t>
+  </si>
+  <si>
+    <t>50.975789,-114.015810</t>
+  </si>
+  <si>
+    <t>quarry park</t>
+  </si>
+  <si>
+    <t>50.963583,-114.012232</t>
+  </si>
+  <si>
+    <t>douglas glen blvd</t>
+  </si>
+  <si>
+    <t>50.957148,-114.007522</t>
+  </si>
+  <si>
+    <t>dougles glen</t>
+  </si>
+  <si>
+    <t>50.956513,-114.001312</t>
+  </si>
+  <si>
+    <t>51.047434,-114.061768</t>
+  </si>
+  <si>
+    <t>51.0466330,-114.065383</t>
+  </si>
+  <si>
+    <t>51.045379,-114.055585</t>
+  </si>
+  <si>
+    <t>51.044690,-114.063075</t>
+  </si>
+  <si>
+    <t>51.044502,-114.058282</t>
+  </si>
+  <si>
+    <t>51.044066,-114.048331</t>
+  </si>
+  <si>
+    <t>51.043363,-114.041537</t>
+  </si>
+  <si>
+    <t>51.041229,-114.034308</t>
+  </si>
+  <si>
+    <t>51.036429,-114.021919</t>
+  </si>
+  <si>
+    <t>51.037488,-113.994222</t>
+  </si>
+  <si>
+    <t>51.037814,-113.986637</t>
+  </si>
+  <si>
+    <t>51.037739,-113.981612</t>
+  </si>
+  <si>
+    <t>51.037819,-113.969973</t>
+  </si>
+  <si>
+    <t>51.037821,-113.958457</t>
+  </si>
+  <si>
+    <t>51.037972,-113.942816</t>
+  </si>
+  <si>
+    <t>51.037831,-113.930156</t>
+  </si>
+  <si>
+    <t>51.037533,-113.911970</t>
+  </si>
+  <si>
+    <t>51.037533,-113.907559</t>
+  </si>
+  <si>
+    <t>51.047901,-114.079439</t>
+  </si>
+  <si>
+    <t>51.047793,-114.074234</t>
+  </si>
+  <si>
+    <t>51.047572,-114.068641</t>
+  </si>
+  <si>
+    <t>51.048414,-114.065394</t>
+  </si>
+  <si>
+    <t>51.048638,-114.072426</t>
+  </si>
+  <si>
+    <t>51.046733,-114.076297</t>
+  </si>
+  <si>
+    <t>51.045158,-114.083900</t>
+  </si>
+  <si>
+    <t>51.037603,-114.113548</t>
+  </si>
+  <si>
+    <t>51.030320,-114.118145</t>
+  </si>
+  <si>
+    <t>51.024180,-114.117894</t>
+  </si>
+  <si>
+    <t>50.973842,-114.095834</t>
+  </si>
+  <si>
+    <t>50.961658,-114.106715</t>
+  </si>
+  <si>
+    <t>50.960631,-114.117981</t>
+  </si>
+  <si>
+    <t>50.954587,-114.117965</t>
+  </si>
+  <si>
+    <t>50.941329,-114.117942</t>
+  </si>
+  <si>
+    <t>50.936424,-114.117873</t>
+  </si>
+  <si>
+    <t>Hounsfield Heights/Briar Hill</t>
+  </si>
+  <si>
+    <t>Hounsfield Heights/Briar Hill
+Capitol Hill
+Banff Trail</t>
+  </si>
+  <si>
+    <t>Killarney/Glengarry
+Glenbrook
+Glendale</t>
+  </si>
+  <si>
+    <t>Rutland Park
+Glamorgan
+Glenbrook
+Killarney/Glengarry</t>
+  </si>
+  <si>
+    <t>Shaganappi
+Rosscarrock
+Killarney</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -902,7 +1302,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,23 +1663,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1711,7 @@
         <v>-114.23560000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1728,7 @@
         <v>-114.206602</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1745,7 @@
         <v>-114.159969</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1762,7 @@
         <v>-114.131849</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75">
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1779,7 @@
         <v>-114.12302</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1796,7 @@
         <v>-114.115431</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1813,7 @@
         <v>-114.103587</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1830,7 @@
         <v>-114.091128</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1425,7 +1847,7 @@
         <v>-114.084383</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +1864,7 @@
         <v>-114.058285</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1459,7 +1881,7 @@
         <v>-114.059005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75">
+    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1898,7 @@
         <v>-114.061357</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1915,7 @@
         <v>-114.065494</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.5">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1510,7 +1932,7 @@
         <v>-114.07392299999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="57">
+    <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1527,7 +1949,7 @@
         <v>-114.076725</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1966,7 @@
         <v>-114.07468799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.75">
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1561,7 +1983,7 @@
         <v>-114.06982000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1578,7 +2000,7 @@
         <v>-114.072885</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42.75">
+    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1595,7 +2017,7 @@
         <v>-114.070564</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +2034,7 @@
         <v>-114.068921</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1622,15 +2044,15 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="1">
         <v>51.046973999999999</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="1">
         <v>-114.079003</v>
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>45</v>
       </c>
@@ -1640,15 +2062,15 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="1">
         <v>51.046830999999997</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="1">
         <v>-114.07387199999999</v>
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
@@ -1658,15 +2080,15 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="1">
         <v>51.046548000000001</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="1">
         <v>-114.067882</v>
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -1676,15 +2098,15 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="1">
         <v>51.046351999999999</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="1">
         <v>-114.058588</v>
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="57">
+    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -1701,7 +2123,7 @@
         <v>-114.18790199999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.5">
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +2140,7 @@
         <v>-114.169128</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42.75">
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
@@ -1735,7 +2157,7 @@
         <v>-114.153425</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="42.75">
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
@@ -1752,7 +2174,7 @@
         <v>-114.124162</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
@@ -1769,7 +2191,7 @@
         <v>-114.124038</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>61</v>
       </c>
@@ -1786,7 +2208,7 @@
         <v>-114.099099</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
@@ -1803,7 +2225,7 @@
         <v>-114.087225</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>45</v>
       </c>
@@ -1821,7 +2243,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -1839,7 +2261,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +2279,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>45</v>
       </c>
@@ -1875,7 +2297,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
@@ -1892,7 +2314,7 @@
         <v>-114.04029199999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>64</v>
       </c>
@@ -1909,7 +2331,7 @@
         <v>-114.025265</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>67</v>
       </c>
@@ -1926,7 +2348,7 @@
         <v>-114.005753</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
@@ -1943,7 +2365,7 @@
         <v>-113.99438000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.5">
+    <row r="41" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>71</v>
       </c>
@@ -1960,7 +2382,7 @@
         <v>-113.981329</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>73</v>
       </c>
@@ -1977,7 +2399,7 @@
         <v>-113.981646</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28.5">
+    <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -1994,7 +2416,7 @@
         <v>-113.981999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.5">
+    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>76</v>
       </c>
@@ -2011,7 +2433,7 @@
         <v>-113.97472500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.5">
+    <row r="45" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>78</v>
       </c>
@@ -2028,7 +2450,7 @@
         <v>-113.967602</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="42.75">
+    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>80</v>
       </c>
@@ -2046,7 +2468,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="28.5">
+    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -2063,7 +2485,7 @@
         <v>-114.13214000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="28.5">
+    <row r="48" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -2080,7 +2502,7 @@
         <v>-114.130239</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.5">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2097,7 +2519,7 @@
         <v>-114.145858</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -2114,7 +2536,7 @@
         <v>-114.132418</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="57">
+    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -2131,7 +2553,7 @@
         <v>-114.105172</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.5">
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -2148,7 +2570,7 @@
         <v>-114.089896</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="57">
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -2165,7 +2587,7 @@
         <v>-114.071192</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="71.25">
+    <row r="54" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -2182,7 +2604,7 @@
         <v>-114.05601900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.75">
+    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -2199,7 +2621,7 @@
         <v>-114.04308399999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2638,7 @@
         <v>-114.013324</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.5">
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>101</v>
       </c>
@@ -2233,7 +2655,7 @@
         <v>-113.969956</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="57">
+    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>103</v>
       </c>
@@ -2250,7 +2672,7 @@
         <v>-113.95845300000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.5">
+    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2267,7 +2689,7 @@
         <v>-113.958505</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.5">
+    <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -2284,7 +2706,7 @@
         <v>-113.958432</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.5">
+    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2301,7 +2723,7 @@
         <v>-113.95834499999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.5">
+    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>109</v>
       </c>
@@ -2318,7 +2740,7 @@
         <v>-113.94976699999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.5">
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -2335,7 +2757,7 @@
         <v>-113.94683999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="42.75">
+    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
@@ -2352,7 +2774,7 @@
         <v>-113.946725</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="42.75">
+    <row r="65" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -2369,7 +2791,7 @@
         <v>-114.14225999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="57">
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -2386,7 +2808,7 @@
         <v>-114.141154</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="42.75">
+    <row r="67" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -2403,7 +2825,7 @@
         <v>-114.139111</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -2420,7 +2842,7 @@
         <v>-114.13384000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -2437,7 +2859,7 @@
         <v>-114.126971</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.5">
+    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -2454,7 +2876,7 @@
         <v>-114.11796699999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.5">
+    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2471,7 +2893,7 @@
         <v>-114.09588100000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.5">
+    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2488,7 +2910,7 @@
         <v>-114.09565600000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="42.75">
+    <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -2505,7 +2927,7 @@
         <v>-114.083052</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="57">
+    <row r="74" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2522,7 +2944,7 @@
         <v>-114.07489200000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.5">
+    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2539,7 +2961,7 @@
         <v>-114.060045</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -2556,7 +2978,7 @@
         <v>-114.044048</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -2573,7 +2995,7 @@
         <v>-114.01581</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.5">
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -2590,7 +3012,7 @@
         <v>-114.012232</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.5">
+    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -2607,7 +3029,7 @@
         <v>-114.00752199999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2624,7 +3046,7 @@
         <v>-114.001312</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -2641,7 +3063,7 @@
         <v>-114.061768</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -2658,7 +3080,7 @@
         <v>-114.065383</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="42.75">
+    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -2675,7 +3097,7 @@
         <v>-114.05558499999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="42.75">
+    <row r="84" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -2692,7 +3114,7 @@
         <v>-114.063075</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="57">
+    <row r="85" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -2709,7 +3131,7 @@
         <v>-114.05828200000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.5">
+    <row r="86" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -2726,7 +3148,7 @@
         <v>-114.048331</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57">
+    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -2743,7 +3165,7 @@
         <v>-114.04153700000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.5">
+    <row r="88" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -2760,7 +3182,7 @@
         <v>-114.034308</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -2777,7 +3199,7 @@
         <v>-114.021919</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -2794,7 +3216,7 @@
         <v>-113.99422199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -2811,7 +3233,7 @@
         <v>-113.986637</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="42.75">
+    <row r="92" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -2828,7 +3250,7 @@
         <v>-113.981612</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.5">
+    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -2845,7 +3267,7 @@
         <v>-113.969973</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="42.75">
+    <row r="94" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -2862,7 +3284,7 @@
         <v>-113.958457</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -2879,7 +3301,7 @@
         <v>-113.94281599999999</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>175</v>
       </c>
@@ -2896,7 +3318,7 @@
         <v>-113.930156</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -2913,7 +3335,7 @@
         <v>-113.91197</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -2930,7 +3352,7 @@
         <v>-113.90755900000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="33.75" customHeight="1">
+    <row r="99" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -2947,7 +3369,7 @@
         <v>-114.07943899999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -2964,7 +3386,7 @@
         <v>-114.074234</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -2981,7 +3403,7 @@
         <v>-114.068641</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="42.75">
+    <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -2998,7 +3420,7 @@
         <v>-114.065394</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>186</v>
       </c>
@@ -3015,7 +3437,7 @@
         <v>-114.07242599999999</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -3032,7 +3454,7 @@
         <v>-114.076297</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="57">
+    <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -3049,7 +3471,7 @@
         <v>-114.0839</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.5">
+    <row r="106" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>190</v>
       </c>
@@ -3066,7 +3488,7 @@
         <v>-114.11354799999999</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -3083,7 +3505,7 @@
         <v>-114.118145</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="42.75">
+    <row r="108" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -3100,7 +3522,7 @@
         <v>-114.11789400000001</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>196</v>
       </c>
@@ -3117,7 +3539,7 @@
         <v>-114.126971</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="28.5">
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>197</v>
       </c>
@@ -3134,7 +3556,7 @@
         <v>-114.11796699999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="28.5">
+    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>198</v>
       </c>
@@ -3151,7 +3573,7 @@
         <v>-114.09588100000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="28.5">
+    <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>199</v>
       </c>
@@ -3168,7 +3590,7 @@
         <v>-114.09565600000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="57">
+    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -3185,7 +3607,7 @@
         <v>-114.095834</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="42.75">
+    <row r="114" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -3202,7 +3624,7 @@
         <v>-114.10671499999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="57">
+    <row r="115" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -3219,7 +3641,7 @@
         <v>-114.117981</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="28.5">
+    <row r="116" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -3236,7 +3658,7 @@
         <v>-114.117965</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="28.5">
+    <row r="117" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -3253,7 +3675,7 @@
         <v>-114.117942</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="28.5">
+    <row r="118" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>210</v>
       </c>
@@ -3268,6 +3690,1678 @@
       </c>
       <c r="E118" s="19">
         <v>-114.117873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F1F5BE-412C-BA48-AA47-CE545307CC0E}">
+  <dimension ref="A1:D118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A115" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sets/Analysis Data/Stops Sorted.xlsx
+++ b/Data Sets/Analysis Data/Stops Sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulemanbasit/PycharmProjects/Calgary-Transit-Economic-Gap-Analysis/Data Sets/Analysis Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8B3840-2460-914E-9BF1-92F2CE464EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D1718-4880-AC4C-A7A9-1C62AE791070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="500" windowWidth="20580" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="350">
   <si>
     <t>Location</t>
   </si>
@@ -1175,6 +1175,50 @@
     <t>Shaganappi
 Rosscarrock
 Killarney</t>
+  </si>
+  <si>
+    <t>Winston Heights/Mountview
+Renfrew</t>
+  </si>
+  <si>
+    <t>Douglasdale/Glen</t>
+  </si>
+  <si>
+    <t>Crescent Heights
+Winston Heights/Mountview
+Tuxedo Park
+Renfrew</t>
+  </si>
+  <si>
+    <t>Downtown Commercial Core
+Downtown East Village</t>
+  </si>
+  <si>
+    <t>Downtown Commercial Core
+Beltline
+Downtown East Village</t>
+  </si>
+  <si>
+    <t>Downtown East Village
+Beltline</t>
+  </si>
+  <si>
+    <t>Downtown East Village
+Beltline
+Ramsay
+Inglewood</t>
+  </si>
+  <si>
+    <t>Ogden
+Riverbend</t>
+  </si>
+  <si>
+    <t>Ogden
+Douglasdale/Glen</t>
+  </si>
+  <si>
+    <t>Rocky Ridge
+Tuscany</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1320,11 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3701,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F1F5BE-412C-BA48-AA47-CE545307CC0E}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3769,16 +3809,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3825,59 +3865,59 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>45</v>
+      <c r="D9" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>45</v>
+      <c r="D10" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>45</v>
+      <c r="D11" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>45</v>
+      <c r="D12" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4007,16 +4047,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4031,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,7 +4085,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,10 +4113,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -4087,7 +4127,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>5</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -4118,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -4129,7 +4169,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4146,7 +4186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -4157,7 +4197,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,7 +4505,7 @@
         <v>83</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -4479,7 +4519,7 @@
         <v>83</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4801,7 +4841,7 @@
         <v>117</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -4815,7 +4855,7 @@
         <v>117</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>143</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,7 +4869,7 @@
         <v>117</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,7 +4911,7 @@
         <v>148</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>151</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -4899,7 +4939,7 @@
         <v>148</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -4913,7 +4953,7 @@
         <v>148</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>157</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -4927,7 +4967,7 @@
         <v>148</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>159</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
